--- a/ig/CodeSystem-experimental-strategy.xlsx
+++ b/ig/CodeSystem-experimental-strategy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-15T01:19:57+00:00</t>
+    <t>2021-11-16T04:51:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-experimental-strategy.xlsx
+++ b/ig/CodeSystem-experimental-strategy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-16T04:51:36+00:00</t>
+    <t>2021-11-17T13:47:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-experimental-strategy.xlsx
+++ b/ig/CodeSystem-experimental-strategy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-17T13:47:01+00:00</t>
+    <t>2021-11-18T22:04:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-experimental-strategy.xlsx
+++ b/ig/CodeSystem-experimental-strategy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-18T22:04:47+00:00</t>
+    <t>2021-11-19T00:04:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-experimental-strategy.xlsx
+++ b/ig/CodeSystem-experimental-strategy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T00:04:47+00:00</t>
+    <t>2021-11-19T00:13:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-experimental-strategy.xlsx
+++ b/ig/CodeSystem-experimental-strategy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T00:13:18+00:00</t>
+    <t>2021-11-19T18:00:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-experimental-strategy.xlsx
+++ b/ig/CodeSystem-experimental-strategy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T18:00:23+00:00</t>
+    <t>2021-11-19T18:02:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-experimental-strategy.xlsx
+++ b/ig/CodeSystem-experimental-strategy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T18:02:16+00:00</t>
+    <t>2021-11-19T21:14:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-experimental-strategy.xlsx
+++ b/ig/CodeSystem-experimental-strategy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T21:14:24+00:00</t>
+    <t>2021-11-22T14:07:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-experimental-strategy.xlsx
+++ b/ig/CodeSystem-experimental-strategy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-22T14:07:32+00:00</t>
+    <t>2021-11-22T14:10:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-experimental-strategy.xlsx
+++ b/ig/CodeSystem-experimental-strategy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-22T14:10:59+00:00</t>
+    <t>2021-11-23T21:25:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-experimental-strategy.xlsx
+++ b/ig/CodeSystem-experimental-strategy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-23T21:25:23+00:00</t>
+    <t>2021-11-24T19:02:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-experimental-strategy.xlsx
+++ b/ig/CodeSystem-experimental-strategy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-24T19:02:36+00:00</t>
+    <t>2021-11-24T22:31:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-experimental-strategy.xlsx
+++ b/ig/CodeSystem-experimental-strategy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-24T22:31:44+00:00</t>
+    <t>2021-11-30T21:05:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-experimental-strategy.xlsx
+++ b/ig/CodeSystem-experimental-strategy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-30T21:05:25+00:00</t>
+    <t>2021-12-08T16:36:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-experimental-strategy.xlsx
+++ b/ig/CodeSystem-experimental-strategy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-08T16:36:19+00:00</t>
+    <t>2021-12-14T20:47:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-experimental-strategy.xlsx
+++ b/ig/CodeSystem-experimental-strategy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-14T20:47:31+00:00</t>
+    <t>2022-03-11T19:19:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-experimental-strategy.xlsx
+++ b/ig/CodeSystem-experimental-strategy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-11T19:19:27+00:00</t>
+    <t>2022-03-11T19:55:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-experimental-strategy.xlsx
+++ b/ig/CodeSystem-experimental-strategy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-11T19:55:52+00:00</t>
+    <t>2022-04-11T17:12:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-experimental-strategy.xlsx
+++ b/ig/CodeSystem-experimental-strategy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T17:12:20+00:00</t>
+    <t>2022-04-12T17:10:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-experimental-strategy.xlsx
+++ b/ig/CodeSystem-experimental-strategy.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-12T17:10:33+00:00</t>
+    <t>2022-05-18T17:38:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -142,6 +142,15 @@
   </si>
   <si>
     <t>Whole Genome Sequencing</t>
+  </si>
+  <si>
+    <t>TARS</t>
+  </si>
+  <si>
+    <t>Targeted Sequencing</t>
+  </si>
+  <si>
+    <t>Tarteted Sequencing</t>
   </si>
 </sst>
 </file>
@@ -446,7 +455,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -494,6 +503,20 @@
         <v>42</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ig/CodeSystem-experimental-strategy.xlsx
+++ b/ig/CodeSystem-experimental-strategy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T17:38:26+00:00</t>
+    <t>2022-05-18T18:03:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-experimental-strategy.xlsx
+++ b/ig/CodeSystem-experimental-strategy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T18:03:18+00:00</t>
+    <t>2022-05-18T18:24:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-experimental-strategy.xlsx
+++ b/ig/CodeSystem-experimental-strategy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T18:24:05+00:00</t>
+    <t>2022-05-18T18:38:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-experimental-strategy.xlsx
+++ b/ig/CodeSystem-experimental-strategy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T18:38:41+00:00</t>
+    <t>2022-05-18T18:56:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-experimental-strategy.xlsx
+++ b/ig/CodeSystem-experimental-strategy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T18:56:15+00:00</t>
+    <t>2022-05-18T19:09:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-experimental-strategy.xlsx
+++ b/ig/CodeSystem-experimental-strategy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T19:09:53+00:00</t>
+    <t>2022-05-18T19:16:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-experimental-strategy.xlsx
+++ b/ig/CodeSystem-experimental-strategy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T19:16:13+00:00</t>
+    <t>2022-05-18T19:30:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-experimental-strategy.xlsx
+++ b/ig/CodeSystem-experimental-strategy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T19:30:31+00:00</t>
+    <t>2022-05-18T19:33:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-experimental-strategy.xlsx
+++ b/ig/CodeSystem-experimental-strategy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T19:33:24+00:00</t>
+    <t>2022-05-19T03:16:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-experimental-strategy.xlsx
+++ b/ig/CodeSystem-experimental-strategy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-19T03:16:26+00:00</t>
+    <t>2022-05-19T05:06:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-experimental-strategy.xlsx
+++ b/ig/CodeSystem-experimental-strategy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-19T05:06:22+00:00</t>
+    <t>2022-05-19T05:30:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-experimental-strategy.xlsx
+++ b/ig/CodeSystem-experimental-strategy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-19T05:30:54+00:00</t>
+    <t>2022-07-20T15:49:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-experimental-strategy.xlsx
+++ b/ig/CodeSystem-experimental-strategy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T15:49:15+00:00</t>
+    <t>2022-07-20T15:55:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-experimental-strategy.xlsx
+++ b/ig/CodeSystem-experimental-strategy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T15:55:58+00:00</t>
+    <t>2022-07-26T14:00:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-experimental-strategy.xlsx
+++ b/ig/CodeSystem-experimental-strategy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T14:00:32+00:00</t>
+    <t>2022-11-10T16:33:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-experimental-strategy.xlsx
+++ b/ig/CodeSystem-experimental-strategy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-10T16:33:20+00:00</t>
+    <t>2022-11-13T16:06:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-experimental-strategy.xlsx
+++ b/ig/CodeSystem-experimental-strategy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-13T16:06:14+00:00</t>
+    <t>2022-11-16T15:22:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-experimental-strategy.xlsx
+++ b/ig/CodeSystem-experimental-strategy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-16T15:22:04+00:00</t>
+    <t>2022-11-16T21:33:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-experimental-strategy.xlsx
+++ b/ig/CodeSystem-experimental-strategy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-16T21:33:27+00:00</t>
+    <t>2022-12-09T19:20:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-experimental-strategy.xlsx
+++ b/ig/CodeSystem-experimental-strategy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-09T19:20:55+00:00</t>
+    <t>2022-12-09T21:34:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-experimental-strategy.xlsx
+++ b/ig/CodeSystem-experimental-strategy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-09T21:34:05+00:00</t>
+    <t>2023-01-23T16:13:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-experimental-strategy.xlsx
+++ b/ig/CodeSystem-experimental-strategy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-23T16:13:19+00:00</t>
+    <t>2023-01-27T17:12:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-experimental-strategy.xlsx
+++ b/ig/CodeSystem-experimental-strategy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-27T17:12:17+00:00</t>
+    <t>2023-01-30T21:30:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-experimental-strategy.xlsx
+++ b/ig/CodeSystem-experimental-strategy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-30T21:30:05+00:00</t>
+    <t>2023-02-09T16:19:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-experimental-strategy.xlsx
+++ b/ig/CodeSystem-experimental-strategy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T16:19:35+00:00</t>
+    <t>2023-02-14T19:15:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-experimental-strategy.xlsx
+++ b/ig/CodeSystem-experimental-strategy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T19:15:12+00:00</t>
+    <t>2023-02-20T18:51:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-experimental-strategy.xlsx
+++ b/ig/CodeSystem-experimental-strategy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T18:51:53+00:00</t>
+    <t>2023-02-20T18:59:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-experimental-strategy.xlsx
+++ b/ig/CodeSystem-experimental-strategy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T18:59:33+00:00</t>
+    <t>2023-02-20T19:32:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-experimental-strategy.xlsx
+++ b/ig/CodeSystem-experimental-strategy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T19:32:51+00:00</t>
+    <t>2023-02-21T11:59:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-experimental-strategy.xlsx
+++ b/ig/CodeSystem-experimental-strategy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T11:59:56+00:00</t>
+    <t>2023-02-21T12:43:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-experimental-strategy.xlsx
+++ b/ig/CodeSystem-experimental-strategy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T12:43:59+00:00</t>
+    <t>2023-02-28T17:04:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-experimental-strategy.xlsx
+++ b/ig/CodeSystem-experimental-strategy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T17:04:12+00:00</t>
+    <t>2023-03-09T16:02:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-experimental-strategy.xlsx
+++ b/ig/CodeSystem-experimental-strategy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T16:02:20+00:00</t>
+    <t>2023-03-09T16:05:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-experimental-strategy.xlsx
+++ b/ig/CodeSystem-experimental-strategy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T16:05:10+00:00</t>
+    <t>2023-03-09T21:27:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-experimental-strategy.xlsx
+++ b/ig/CodeSystem-experimental-strategy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T21:27:23+00:00</t>
+    <t>2023-03-10T14:30:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-experimental-strategy.xlsx
+++ b/ig/CodeSystem-experimental-strategy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T14:30:38+00:00</t>
+    <t>2023-03-10T16:37:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-experimental-strategy.xlsx
+++ b/ig/CodeSystem-experimental-strategy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T16:37:58+00:00</t>
+    <t>2023-03-10T16:43:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-experimental-strategy.xlsx
+++ b/ig/CodeSystem-experimental-strategy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T16:43:52+00:00</t>
+    <t>2023-03-16T01:14:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-experimental-strategy.xlsx
+++ b/ig/CodeSystem-experimental-strategy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T01:14:24+00:00</t>
+    <t>2023-03-16T01:23:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-experimental-strategy.xlsx
+++ b/ig/CodeSystem-experimental-strategy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T01:23:31+00:00</t>
+    <t>2023-03-21T11:43:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-experimental-strategy.xlsx
+++ b/ig/CodeSystem-experimental-strategy.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-21T11:43:18+00:00</t>
+    <t>2023-04-04T14:29:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>2</t>
+    <t>4</t>
   </si>
   <si>
     <t>Level</t>
@@ -144,13 +144,19 @@
     <t>Whole Genome Sequencing</t>
   </si>
   <si>
-    <t>TARS</t>
+    <t>TGS</t>
   </si>
   <si>
     <t>Targeted Sequencing</t>
   </si>
   <si>
     <t>Tarteted Sequencing</t>
+  </si>
+  <si>
+    <t>WTS</t>
+  </si>
+  <si>
+    <t>Whole Transcriptome Sequencing</t>
   </si>
 </sst>
 </file>
@@ -455,7 +461,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -517,6 +523,18 @@
         <v>45</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ig/CodeSystem-experimental-strategy.xlsx
+++ b/ig/CodeSystem-experimental-strategy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-04T14:29:08+00:00</t>
+    <t>2023-05-30T18:28:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-experimental-strategy.xlsx
+++ b/ig/CodeSystem-experimental-strategy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-30T18:28:01+00:00</t>
+    <t>2023-07-19T14:01:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -278,10 +278,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/ig/CodeSystem-experimental-strategy.xlsx
+++ b/ig/CodeSystem-experimental-strategy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-19T14:01:19+00:00</t>
+    <t>2023-08-02T16:54:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-experimental-strategy.xlsx
+++ b/ig/CodeSystem-experimental-strategy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-02T16:54:26+00:00</t>
+    <t>2023-10-18T17:21:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-experimental-strategy.xlsx
+++ b/ig/CodeSystem-experimental-strategy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T17:21:54+00:00</t>
+    <t>2023-11-09T20:21:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-experimental-strategy.xlsx
+++ b/ig/CodeSystem-experimental-strategy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-09T20:21:55+00:00</t>
+    <t>2023-11-27T16:21:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-experimental-strategy.xlsx
+++ b/ig/CodeSystem-experimental-strategy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-27T16:21:02+00:00</t>
+    <t>2024-03-01T18:52:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-experimental-strategy.xlsx
+++ b/ig/CodeSystem-experimental-strategy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-01T18:52:33+00:00</t>
+    <t>2024-03-19T14:09:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-experimental-strategy.xlsx
+++ b/ig/CodeSystem-experimental-strategy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T14:09:21+00:00</t>
+    <t>2024-03-25T15:25:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-experimental-strategy.xlsx
+++ b/ig/CodeSystem-experimental-strategy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T15:25:45+00:00</t>
+    <t>2024-03-28T12:52:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-experimental-strategy.xlsx
+++ b/ig/CodeSystem-experimental-strategy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-28T12:52:30+00:00</t>
+    <t>2024-05-09T16:24:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Cqgc (mailto:support@ferlab.bio)</t>
   </si>
   <si>
     <t>Description</t>

--- a/ig/CodeSystem-experimental-strategy.xlsx
+++ b/ig/CodeSystem-experimental-strategy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-09T16:24:25+00:00</t>
+    <t>2024-05-09T16:30:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-experimental-strategy.xlsx
+++ b/ig/CodeSystem-experimental-strategy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-09T16:30:56+00:00</t>
+    <t>2024-06-10T12:41:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
